--- a/Resource/TestCaseTemplate.xlsx
+++ b/Resource/TestCaseTemplate.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BF99D7-A244-4056-9809-DC437BF7F420}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B843BA33-A372-48F6-8344-CF9AD2A1CF26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -50,6 +50,22 @@
   </si>
   <si>
     <t>关键字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.模块层级根据自己需要依次往后插入列。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -503,54 +519,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10305AE-C695-4B4A-A4AD-A892AF8D65EF}">
-  <dimension ref="A1:BE1"/>
+  <dimension ref="A1:BG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="41.5546875" customWidth="1"/>
-    <col min="9" max="9" width="40.44140625" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="41.5546875" customWidth="1"/>
+    <col min="11" max="11" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -597,6 +618,18 @@
       <c r="BC1" s="1"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
